--- a/spreadsheet/macrofree/azure_storage_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azure_storage_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>請考慮「存儲的 Azure 安全基線”</t>
+          <t>考慮「存儲的 Azure 安全基線”</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
+          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用端點允許僅將 Azure 儲存安全地公開給需要訪問的 Azure 計算資源，從而消除對公共 Internet 的暴露</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
+          <t>確保較舊的存儲帳戶不使用“經典部署模型”</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
+          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有採用經典部署模型的舊存儲帳戶</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>禁用 blob 的“軟刪除”</t>
+          <t>對 blob 禁用“軟刪除”</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>請考慮有選擇地為某些 blob 容器禁用「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>容器的軟刪除使您能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
+          <t>通過容器的軟刪除，您可以在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>禁用容器的“軟刪除”</t>
+          <t>為容器禁用“軟刪除”</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>請考慮有選擇地為某些 blob 容器禁用「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>通過強制使用者先刪除刪除鎖，然後再刪除存儲帳戶，防止意外刪除存儲帳戶</t>
+          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>考慮不可變的 blob</t>
+          <t>考慮不可變 blob</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，以便無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;一旦存儲帳戶包含不可變的 blob，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
+          <t>請考慮對 blob 使用“依法保留”或“基於時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上是「不可能」的意思;一旦存儲帳戶包含不可變的 blob，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並且對伺服器進行身份驗證。</t>
+          <t>請考慮禁用對存儲帳戶的不受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>強制執行 HTTPS（禁用 HTTP）時，請檢查是否不要對儲存帳戶使用自定義域 （CNAME）。</t>
+          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
+          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，則可能需要將 Azure CDN 放在存儲帳戶前面。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於最大程度地降低憑據丟失的風險。</t>
+          <t>當用戶端使用S.10萬萬元訪問 blob 資料時，要求 HTTPS 有助於最大限度地降低憑據丟失的風險。</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>強制實施存儲帳戶的最新 TLS 版本</t>
+          <t>對存儲帳戶強制實施最新的 TLS 版本</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>.強制執行最新的 TLS 版本將拒絕來自使用舊版本的用戶端的請求。</t>
+          <t>.強制實施最新的 TLS 版本將拒絕來自使用舊版本的用戶端的請求。</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>在可能的情況下，應優先使用 Microsoft Entra ID 令牌，而不是共用訪問簽名</t>
+          <t>應盡可能使用 Microsoft Entra ID 令牌，而不是共用訪問簽名</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1819,12 +1819,12 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>IaM 許可權中的最小特權</t>
+          <t>IaM 許可權中的最低許可權</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>為使用者、組或應用程式分配角色時，請僅授予該安全主體執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
+          <t>將角色分配給使用者、組或應用程式時，僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用您的數據。</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但與服務 SAS 相比，它提供了安全優勢。</t>
+          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但與服務 SAS 相比具有安全優勢。</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 Microsoft Entra ID 訪問（和使用者委派 SAS）。</t>
+          <t>請考慮關閉儲存帳戶金鑰，以便僅支援 Microsoft Entra ID 存取 （和使用者委派 SAS） 。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取了密鑰的副本，但一旦密鑰掌握在多人手中，就不可能將使用方式歸因於特定使用者。僅依賴 Entra ID 身份驗證可以更輕鬆地將存儲訪問許可權與用戶綁定。</t>
+          <t>存儲帳戶金鑰（“共用金鑰”）的審核功能非常少。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多人手中，就不可能將使用歸因於特定使用者。僅依靠 Entra ID 身份驗證可以更輕鬆地將存儲訪問許可權綁定到使用者。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>使用活動日誌數據來確定查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
+          <t>使用活動日誌數據來確定存儲帳戶的安全性（即存儲帳戶密鑰、訪問策略等）的「何時」、“誰”、“什麼”和“如何”被查看或更改。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果已過指定的時間間隔且尚未旋轉鍵，則會顯示提醒。</t>
+          <t>金鑰過期策略允許您為帳戶訪問金鑰的輪換設置提醒。如果指定的間隔已過，並且尚未輪換鍵，則會顯示提醒。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>SAS 過期策略指定了 SAS 的有效時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們將看到警告。</t>
+          <t>SAS 過期策略指定 SAS 的有效建議間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成有效間隔大於建議間隔的服務 SAS 或帳戶 SAS 時，他們將看到警告。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>通過存儲訪問策略，可以選擇撤銷服務 SAS 的許可權，而無需重新生成存儲帳戶密鑰。</t>
+          <t>存儲存取策略使你可以選擇撤銷服務 SAS 的許可權，而無需重新生成儲存帳戶密鑰。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure KeyVault 中儲存連接字串（在無法使用託管標識的情況下）</t>
+          <t>考慮將連接字串儲存在 Azure KeyVault 中（在無法使用託管標識的情況下）</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中擁有存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
+          <t>理想情況下，應用程式應使用託管標識對 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>爭取縮短臨時 SAS 的有效期</t>
+          <t>爭取臨時 SAS 的短有效期</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只會在短時間內有效。如果無法引用存儲訪問策略，則這種做法尤為重要。近期過期時間還通過限制可用於上傳到 blob 的時間來限制可以寫入 blob 的數據量。</t>
+          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也僅在短時間內有效。如果您無法引用 stored access policy，則這種做法尤其重要。近期過期時間還會限制可上傳到 blob 的數據量，從而限制可寫入 blob 的數據量。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>對SAS應用窄範圍</t>
+          <t>將窄範圍應用於SAS</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>創建 SAS 時，請盡可能具體且具有限制性。首選單一資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
+          <t>創建 SAS 時，請盡可能具體和限制。首選 SAS 用於單個資源和操作，而不是 SAS，後者提供更廣泛的訪問許可權。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2356,12 +2356,12 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
+          <t>盡可能考慮將SAS範圍限定為特定的用戶端IP位址</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
+          <t>SAS 可以包含有關哪些用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>在用戶端使用SAS上傳檔后，請考慮檢查上傳的數據。</t>
+          <t>考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>SAS無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能很有意義。</t>
+          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2452,12 +2452,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核隨著時間的推移是否需要訪問。</t>
+          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>使用「本地使用者帳戶」通過 SFTP 訪問 blob 儲存時，“通常”的 RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更具限制性。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點目前支援的唯一身份管理形式</t>
+          <t>使用「本地使用者帳戶」通過 SFTP 訪問 blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
+          <t>SFTP：SFTP 終端節點不支持類似 POSIX 的 ACL。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>存儲支援 CORS（跨源資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放鬆同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
+          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>保密性和加密</t>
+          <t>機密性和加密</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能會使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可能是通過讓用戶端基於每個 blob 向 Azure 儲存提供加密/解密密鑰，或者透過在用戶端完全處理加密來實現的。因此，根本不依賴 Azure 存儲來保證機密性。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>保密性和加密</t>
+          <t>機密性和加密</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>保密性和加密</t>
+          <t>機密性和加密</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2740,12 +2740,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>考慮是否需要公共 blob 匿名訪問，或者是否可以對某些存儲帳戶禁用公共 blob 匿名訪問。</t>
+          <t>考慮是否需要公共 blob 匿名訪問，或者是否可以為某些存儲帳戶禁用它。</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>利用 Resource Graph 資源管理器 （resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true） 查找允許匿名 blob 訪問的存儲帳戶。</t>
+          <t>匿名訪問可能會帶來安全風險。我們建議您禁用匿名訪問以獲得最佳安全性。禁止匿名訪問有助於防止因不需要的匿名訪問而導致的數據洩露。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>瞭解 Microsoft 託管的故障轉移詳細資訊</t>
+          <t>瞭解 Microsoft 託管故障轉移詳細資訊</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7277,7 +7277,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
